--- a/output.xlsx
+++ b/output.xlsx
@@ -3762,9 +3762,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1"/>
       <c r="H1" t="s">
         <v>7</v>
       </c>
@@ -3820,9 +3818,7 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
+      <c r="G3"/>
       <c r="H3" t="s">
         <v>21</v>
       </c>
@@ -3878,9 +3874,7 @@
       <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
+      <c r="G5"/>
       <c r="H5" t="s">
         <v>36</v>
       </c>
@@ -3907,9 +3901,7 @@
       <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>44</v>
       </c>
@@ -3936,9 +3928,7 @@
       <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
+      <c r="G7"/>
       <c r="H7" t="s">
         <v>50</v>
       </c>
@@ -3994,9 +3984,7 @@
       <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
+      <c r="G9"/>
       <c r="H9" t="s">
         <v>65</v>
       </c>
@@ -4023,9 +4011,7 @@
       <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
+      <c r="G10"/>
       <c r="H10" t="s">
         <v>71</v>
       </c>
@@ -4052,9 +4038,7 @@
       <c r="F11" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
+      <c r="G11"/>
       <c r="H11" t="s">
         <v>78</v>
       </c>
@@ -4081,9 +4065,7 @@
       <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
+      <c r="G12"/>
       <c r="H12" t="s">
         <v>84</v>
       </c>
@@ -4139,9 +4121,7 @@
       <c r="F14" t="s">
         <v>96</v>
       </c>
-      <c r="G14" t="s">
-        <v>97</v>
-      </c>
+      <c r="G14"/>
       <c r="H14" t="s">
         <v>98</v>
       </c>
@@ -4171,9 +4151,7 @@
       <c r="F15" t="s">
         <v>96</v>
       </c>
-      <c r="G15" t="s">
-        <v>104</v>
-      </c>
+      <c r="G15"/>
       <c r="H15" t="s">
         <v>105</v>
       </c>
@@ -4203,9 +4181,7 @@
       <c r="F16" t="s">
         <v>96</v>
       </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
+      <c r="G16"/>
       <c r="H16" t="s">
         <v>110</v>
       </c>
@@ -4232,9 +4208,7 @@
       <c r="F17" t="s">
         <v>96</v>
       </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
+      <c r="G17"/>
       <c r="H17" t="s">
         <v>116</v>
       </c>
@@ -4261,9 +4235,7 @@
       <c r="F18" t="s">
         <v>96</v>
       </c>
-      <c r="G18" t="s">
-        <v>121</v>
-      </c>
+      <c r="G18"/>
       <c r="H18" t="s">
         <v>122</v>
       </c>
@@ -4290,9 +4262,7 @@
       <c r="F19" t="s">
         <v>96</v>
       </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
+      <c r="G19"/>
       <c r="H19" t="s">
         <v>128</v>
       </c>
@@ -4319,9 +4289,7 @@
       <c r="F20" t="s">
         <v>133</v>
       </c>
-      <c r="G20" t="s">
-        <v>134</v>
-      </c>
+      <c r="G20"/>
       <c r="H20" t="s">
         <v>135</v>
       </c>
@@ -4348,9 +4316,7 @@
       <c r="F21" t="s">
         <v>133</v>
       </c>
-      <c r="G21" t="s">
-        <v>140</v>
-      </c>
+      <c r="G21"/>
       <c r="H21" t="s">
         <v>141</v>
       </c>
@@ -4377,9 +4343,7 @@
       <c r="F22" t="s">
         <v>133</v>
       </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
+      <c r="G22"/>
       <c r="H22" t="s">
         <v>146</v>
       </c>
@@ -4406,9 +4370,7 @@
       <c r="F23" t="s">
         <v>133</v>
       </c>
-      <c r="G23" t="s">
-        <v>151</v>
-      </c>
+      <c r="G23"/>
       <c r="H23" t="s">
         <v>152</v>
       </c>
@@ -4435,9 +4397,7 @@
       <c r="F24" t="s">
         <v>133</v>
       </c>
-      <c r="G24" t="s">
-        <v>157</v>
-      </c>
+      <c r="G24"/>
       <c r="H24" t="s">
         <v>158</v>
       </c>
@@ -4464,9 +4424,7 @@
       <c r="F25" t="s">
         <v>133</v>
       </c>
-      <c r="G25" t="s">
-        <v>163</v>
-      </c>
+      <c r="G25"/>
       <c r="H25" t="s">
         <v>164</v>
       </c>
@@ -4493,9 +4451,7 @@
       <c r="F26" t="s">
         <v>133</v>
       </c>
-      <c r="G26" t="s">
-        <v>169</v>
-      </c>
+      <c r="G26"/>
       <c r="H26" t="s">
         <v>170</v>
       </c>
@@ -4522,9 +4478,7 @@
       <c r="F27" t="s">
         <v>133</v>
       </c>
-      <c r="G27" t="s">
-        <v>175</v>
-      </c>
+      <c r="G27"/>
       <c r="H27" t="s">
         <v>176</v>
       </c>
@@ -4551,9 +4505,7 @@
       <c r="F28" t="s">
         <v>133</v>
       </c>
-      <c r="G28" t="s">
-        <v>181</v>
-      </c>
+      <c r="G28"/>
       <c r="H28" t="s">
         <v>182</v>
       </c>
@@ -4580,9 +4532,7 @@
       <c r="F29" t="s">
         <v>133</v>
       </c>
-      <c r="G29" t="s">
-        <v>187</v>
-      </c>
+      <c r="G29"/>
       <c r="H29" t="s">
         <v>188</v>
       </c>
@@ -4609,9 +4559,7 @@
       <c r="F30" t="s">
         <v>133</v>
       </c>
-      <c r="G30" t="s">
-        <v>193</v>
-      </c>
+      <c r="G30"/>
       <c r="H30" t="s">
         <v>194</v>
       </c>
@@ -4638,9 +4586,7 @@
       <c r="F31" t="s">
         <v>133</v>
       </c>
-      <c r="G31" t="s">
-        <v>199</v>
-      </c>
+      <c r="G31"/>
       <c r="H31" t="s">
         <v>200</v>
       </c>
@@ -4667,9 +4613,7 @@
       <c r="F32" t="s">
         <v>133</v>
       </c>
-      <c r="G32" t="s">
-        <v>205</v>
-      </c>
+      <c r="G32"/>
       <c r="H32" t="s">
         <v>206</v>
       </c>
@@ -4696,9 +4640,7 @@
       <c r="F33" t="s">
         <v>133</v>
       </c>
-      <c r="G33" t="s">
-        <v>211</v>
-      </c>
+      <c r="G33"/>
       <c r="H33" t="s">
         <v>212</v>
       </c>
@@ -4725,9 +4667,7 @@
       <c r="F34" t="s">
         <v>133</v>
       </c>
-      <c r="G34" t="s">
-        <v>217</v>
-      </c>
+      <c r="G34"/>
       <c r="H34" t="s">
         <v>218</v>
       </c>
@@ -4754,9 +4694,7 @@
       <c r="F35" t="s">
         <v>133</v>
       </c>
-      <c r="G35" t="s">
-        <v>223</v>
-      </c>
+      <c r="G35"/>
       <c r="H35" t="s">
         <v>224</v>
       </c>
@@ -4841,9 +4779,7 @@
       <c r="F38" t="s">
         <v>241</v>
       </c>
-      <c r="G38" t="s">
-        <v>242</v>
-      </c>
+      <c r="G38"/>
       <c r="H38" t="s">
         <v>243</v>
       </c>
@@ -4870,9 +4806,7 @@
       <c r="F39" t="s">
         <v>241</v>
       </c>
-      <c r="G39" t="s">
-        <v>248</v>
-      </c>
+      <c r="G39"/>
       <c r="H39" t="s">
         <v>249</v>
       </c>
@@ -4928,9 +4862,7 @@
       <c r="F41" t="s">
         <v>260</v>
       </c>
-      <c r="G41" t="s">
-        <v>261</v>
-      </c>
+      <c r="G41"/>
       <c r="H41" t="s">
         <v>262</v>
       </c>
@@ -4957,9 +4889,7 @@
       <c r="F42" t="s">
         <v>260</v>
       </c>
-      <c r="G42" t="s">
-        <v>267</v>
-      </c>
+      <c r="G42"/>
       <c r="H42" t="s">
         <v>268</v>
       </c>
@@ -5015,9 +4945,7 @@
       <c r="F44" t="s">
         <v>278</v>
       </c>
-      <c r="G44" t="s">
-        <v>279</v>
-      </c>
+      <c r="G44"/>
       <c r="H44" t="s">
         <v>280</v>
       </c>
@@ -5044,9 +4972,7 @@
       <c r="F45" t="s">
         <v>278</v>
       </c>
-      <c r="G45" t="s">
-        <v>285</v>
-      </c>
+      <c r="G45"/>
       <c r="H45" t="s">
         <v>286</v>
       </c>
@@ -5073,9 +4999,7 @@
       <c r="F46" t="s">
         <v>278</v>
       </c>
-      <c r="G46" t="s">
-        <v>291</v>
-      </c>
+      <c r="G46"/>
       <c r="H46" t="s">
         <v>292</v>
       </c>
@@ -5102,9 +5026,7 @@
       <c r="F47" t="s">
         <v>278</v>
       </c>
-      <c r="G47" t="s">
-        <v>297</v>
-      </c>
+      <c r="G47"/>
       <c r="H47" t="s">
         <v>298</v>
       </c>
@@ -5131,9 +5053,7 @@
       <c r="F48" t="s">
         <v>303</v>
       </c>
-      <c r="G48" t="s">
-        <v>83</v>
-      </c>
+      <c r="G48"/>
       <c r="H48" t="s">
         <v>84</v>
       </c>
@@ -5189,9 +5109,7 @@
       <c r="F50" t="s">
         <v>314</v>
       </c>
-      <c r="G50" t="s">
-        <v>315</v>
-      </c>
+      <c r="G50"/>
       <c r="H50" t="s">
         <v>316</v>
       </c>
@@ -5247,9 +5165,7 @@
       <c r="F52" t="s">
         <v>328</v>
       </c>
-      <c r="G52" t="s">
-        <v>329</v>
-      </c>
+      <c r="G52"/>
       <c r="H52" t="s">
         <v>330</v>
       </c>
@@ -5276,9 +5192,7 @@
       <c r="F53" t="s">
         <v>328</v>
       </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+      <c r="G53"/>
       <c r="H53" t="s">
         <v>28</v>
       </c>
@@ -5305,9 +5219,7 @@
       <c r="F54" t="s">
         <v>328</v>
       </c>
-      <c r="G54" t="s">
-        <v>166</v>
-      </c>
+      <c r="G54"/>
       <c r="H54" t="s">
         <v>338</v>
       </c>
@@ -5334,9 +5246,7 @@
       <c r="F55" t="s">
         <v>328</v>
       </c>
-      <c r="G55" t="s">
-        <v>343</v>
-      </c>
+      <c r="G55"/>
       <c r="H55" t="s">
         <v>344</v>
       </c>
@@ -5363,9 +5273,7 @@
       <c r="F56" t="s">
         <v>328</v>
       </c>
-      <c r="G56" t="s">
-        <v>349</v>
-      </c>
+      <c r="G56"/>
       <c r="H56" t="s">
         <v>350</v>
       </c>
@@ -5392,9 +5300,7 @@
       <c r="F57" t="s">
         <v>328</v>
       </c>
-      <c r="G57" t="s">
-        <v>237</v>
-      </c>
+      <c r="G57"/>
       <c r="H57" t="s">
         <v>354</v>
       </c>
@@ -5421,9 +5327,7 @@
       <c r="F58" t="s">
         <v>328</v>
       </c>
-      <c r="G58" t="s">
-        <v>359</v>
-      </c>
+      <c r="G58"/>
       <c r="H58" t="s">
         <v>360</v>
       </c>
@@ -5450,9 +5354,7 @@
       <c r="F59" t="s">
         <v>365</v>
       </c>
-      <c r="G59" t="s">
-        <v>329</v>
-      </c>
+      <c r="G59"/>
       <c r="H59" t="s">
         <v>330</v>
       </c>
@@ -5479,9 +5381,7 @@
       <c r="F60" t="s">
         <v>365</v>
       </c>
-      <c r="G60" t="s">
-        <v>369</v>
-      </c>
+      <c r="G60"/>
       <c r="H60" t="s">
         <v>370</v>
       </c>
@@ -5508,9 +5408,7 @@
       <c r="F61" t="s">
         <v>365</v>
       </c>
-      <c r="G61" t="s">
-        <v>310</v>
-      </c>
+      <c r="G61"/>
       <c r="H61" t="s">
         <v>375</v>
       </c>
@@ -5537,9 +5435,7 @@
       <c r="F62" t="s">
         <v>365</v>
       </c>
-      <c r="G62" t="s">
-        <v>329</v>
-      </c>
+      <c r="G62"/>
       <c r="H62" t="s">
         <v>330</v>
       </c>
@@ -5566,9 +5462,7 @@
       <c r="F63" t="s">
         <v>365</v>
       </c>
-      <c r="G63" t="s">
-        <v>383</v>
-      </c>
+      <c r="G63"/>
       <c r="H63" t="s">
         <v>384</v>
       </c>
@@ -5595,9 +5489,7 @@
       <c r="F64" t="s">
         <v>365</v>
       </c>
-      <c r="G64" t="s">
-        <v>389</v>
-      </c>
+      <c r="G64"/>
       <c r="H64" t="s">
         <v>390</v>
       </c>
@@ -5624,9 +5516,7 @@
       <c r="F65" t="s">
         <v>365</v>
       </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
+      <c r="G65"/>
       <c r="H65" t="s">
         <v>146</v>
       </c>
@@ -5653,9 +5543,7 @@
       <c r="F66" t="s">
         <v>365</v>
       </c>
-      <c r="G66" t="s">
-        <v>329</v>
-      </c>
+      <c r="G66"/>
       <c r="H66" t="s">
         <v>330</v>
       </c>
@@ -5682,9 +5570,7 @@
       <c r="F67" t="s">
         <v>365</v>
       </c>
-      <c r="G67" t="s">
-        <v>401</v>
-      </c>
+      <c r="G67"/>
       <c r="H67" t="s">
         <v>402</v>
       </c>
@@ -5711,9 +5597,7 @@
       <c r="F68" t="s">
         <v>365</v>
       </c>
-      <c r="G68" t="s">
-        <v>267</v>
-      </c>
+      <c r="G68"/>
       <c r="H68" t="s">
         <v>268</v>
       </c>
@@ -5769,9 +5653,7 @@
       <c r="F70" t="s">
         <v>417</v>
       </c>
-      <c r="G70" t="s">
-        <v>121</v>
-      </c>
+      <c r="G70"/>
       <c r="H70" t="s">
         <v>122</v>
       </c>
@@ -5798,9 +5680,7 @@
       <c r="F71" t="s">
         <v>417</v>
       </c>
-      <c r="G71" t="s">
-        <v>421</v>
-      </c>
+      <c r="G71"/>
       <c r="H71" t="s">
         <v>422</v>
       </c>
@@ -5827,9 +5707,7 @@
       <c r="F72" t="s">
         <v>427</v>
       </c>
-      <c r="G72" t="s">
-        <v>428</v>
-      </c>
+      <c r="G72"/>
       <c r="H72" t="s">
         <v>429</v>
       </c>
@@ -5914,9 +5792,7 @@
       <c r="F75" t="s">
         <v>447</v>
       </c>
-      <c r="G75" t="s">
-        <v>448</v>
-      </c>
+      <c r="G75"/>
       <c r="H75" t="s">
         <v>449</v>
       </c>
@@ -5972,9 +5848,7 @@
       <c r="F77" t="s">
         <v>461</v>
       </c>
-      <c r="G77" t="s">
-        <v>462</v>
-      </c>
+      <c r="G77"/>
       <c r="H77" t="s">
         <v>463</v>
       </c>
@@ -6001,9 +5875,7 @@
       <c r="F78" t="s">
         <v>461</v>
       </c>
-      <c r="G78" t="s">
-        <v>468</v>
-      </c>
+      <c r="G78"/>
       <c r="H78" t="s">
         <v>469</v>
       </c>
@@ -6030,9 +5902,7 @@
       <c r="F79" t="s">
         <v>474</v>
       </c>
-      <c r="G79" t="s">
-        <v>475</v>
-      </c>
+      <c r="G79"/>
       <c r="H79" t="s">
         <v>476</v>
       </c>
@@ -6059,9 +5929,7 @@
       <c r="F80" t="s">
         <v>474</v>
       </c>
-      <c r="G80" t="s">
-        <v>481</v>
-      </c>
+      <c r="G80"/>
       <c r="H80" t="s">
         <v>482</v>
       </c>
@@ -6175,9 +6043,7 @@
       <c r="F84" t="s">
         <v>510</v>
       </c>
-      <c r="G84" t="s">
-        <v>511</v>
-      </c>
+      <c r="G84"/>
       <c r="H84" t="s">
         <v>512</v>
       </c>
@@ -6204,9 +6070,7 @@
       <c r="F85" t="s">
         <v>510</v>
       </c>
-      <c r="G85" t="s">
-        <v>517</v>
-      </c>
+      <c r="G85"/>
       <c r="H85" t="s">
         <v>518</v>
       </c>
@@ -6233,9 +6097,7 @@
       <c r="F86" t="s">
         <v>510</v>
       </c>
-      <c r="G86" t="s">
-        <v>522</v>
-      </c>
+      <c r="G86"/>
       <c r="H86" t="s">
         <v>523</v>
       </c>
@@ -6262,9 +6124,7 @@
       <c r="F87" t="s">
         <v>510</v>
       </c>
-      <c r="G87" t="s">
-        <v>528</v>
-      </c>
+      <c r="G87"/>
       <c r="H87" t="s">
         <v>529</v>
       </c>
@@ -6291,9 +6151,7 @@
       <c r="F88" t="s">
         <v>510</v>
       </c>
-      <c r="G88" t="s">
-        <v>534</v>
-      </c>
+      <c r="G88"/>
       <c r="H88" t="s">
         <v>535</v>
       </c>
@@ -6320,9 +6178,7 @@
       <c r="F89" t="s">
         <v>510</v>
       </c>
-      <c r="G89" t="s">
-        <v>540</v>
-      </c>
+      <c r="G89"/>
       <c r="H89" t="s">
         <v>541</v>
       </c>
@@ -6349,9 +6205,7 @@
       <c r="F90" t="s">
         <v>510</v>
       </c>
-      <c r="G90" t="s">
-        <v>534</v>
-      </c>
+      <c r="G90"/>
       <c r="H90" t="s">
         <v>535</v>
       </c>
@@ -6378,9 +6232,7 @@
       <c r="F91" t="s">
         <v>510</v>
       </c>
-      <c r="G91" t="s">
-        <v>517</v>
-      </c>
+      <c r="G91"/>
       <c r="H91" t="s">
         <v>518</v>
       </c>
@@ -6407,9 +6259,7 @@
       <c r="F92" t="s">
         <v>510</v>
       </c>
-      <c r="G92" t="s">
-        <v>552</v>
-      </c>
+      <c r="G92"/>
       <c r="H92" t="s">
         <v>553</v>
       </c>
@@ -6436,9 +6286,7 @@
       <c r="F93" t="s">
         <v>510</v>
       </c>
-      <c r="G93" t="s">
-        <v>558</v>
-      </c>
+      <c r="G93"/>
       <c r="H93" t="s">
         <v>559</v>
       </c>
@@ -6465,9 +6313,7 @@
       <c r="F94" t="s">
         <v>510</v>
       </c>
-      <c r="G94" t="s">
-        <v>564</v>
-      </c>
+      <c r="G94"/>
       <c r="H94" t="s">
         <v>565</v>
       </c>
@@ -6494,9 +6340,7 @@
       <c r="F95" t="s">
         <v>510</v>
       </c>
-      <c r="G95" t="s">
-        <v>570</v>
-      </c>
+      <c r="G95"/>
       <c r="H95" t="s">
         <v>571</v>
       </c>
@@ -6523,9 +6367,7 @@
       <c r="F96" t="s">
         <v>576</v>
       </c>
-      <c r="G96" t="s">
-        <v>577</v>
-      </c>
+      <c r="G96"/>
       <c r="H96" t="s">
         <v>578</v>
       </c>
@@ -6552,9 +6394,7 @@
       <c r="F97" t="s">
         <v>576</v>
       </c>
-      <c r="G97" t="s">
-        <v>583</v>
-      </c>
+      <c r="G97"/>
       <c r="H97" t="s">
         <v>584</v>
       </c>
@@ -6581,9 +6421,7 @@
       <c r="F98" t="s">
         <v>576</v>
       </c>
-      <c r="G98" t="s">
-        <v>589</v>
-      </c>
+      <c r="G98"/>
       <c r="H98" t="s">
         <v>590</v>
       </c>
@@ -6610,9 +6448,7 @@
       <c r="F99" t="s">
         <v>576</v>
       </c>
-      <c r="G99" t="s">
-        <v>595</v>
-      </c>
+      <c r="G99"/>
       <c r="H99" t="s">
         <v>596</v>
       </c>
@@ -6639,9 +6475,7 @@
       <c r="F100" t="s">
         <v>576</v>
       </c>
-      <c r="G100" t="s">
-        <v>522</v>
-      </c>
+      <c r="G100"/>
       <c r="H100" t="s">
         <v>523</v>
       </c>
@@ -6668,9 +6502,7 @@
       <c r="F101" t="s">
         <v>576</v>
       </c>
-      <c r="G101" t="s">
-        <v>603</v>
-      </c>
+      <c r="G101"/>
       <c r="H101" t="s">
         <v>604</v>
       </c>
@@ -6697,9 +6529,7 @@
       <c r="F102" t="s">
         <v>576</v>
       </c>
-      <c r="G102" t="s">
-        <v>609</v>
-      </c>
+      <c r="G102"/>
       <c r="H102" t="s">
         <v>610</v>
       </c>
@@ -6726,9 +6556,7 @@
       <c r="F103" t="s">
         <v>576</v>
       </c>
-      <c r="G103" t="s">
-        <v>615</v>
-      </c>
+      <c r="G103"/>
       <c r="H103" t="s">
         <v>616</v>
       </c>
@@ -6755,9 +6583,7 @@
       <c r="F104" t="s">
         <v>576</v>
       </c>
-      <c r="G104" t="s">
-        <v>621</v>
-      </c>
+      <c r="G104"/>
       <c r="H104" t="s">
         <v>622</v>
       </c>
@@ -6784,9 +6610,7 @@
       <c r="F105" t="s">
         <v>576</v>
       </c>
-      <c r="G105" t="s">
-        <v>143</v>
-      </c>
+      <c r="G105"/>
       <c r="H105" t="s">
         <v>627</v>
       </c>
@@ -6813,9 +6637,7 @@
       <c r="F106" t="s">
         <v>576</v>
       </c>
-      <c r="G106" t="s">
-        <v>632</v>
-      </c>
+      <c r="G106"/>
       <c r="H106" t="s">
         <v>633</v>
       </c>
@@ -6871,9 +6693,7 @@
       <c r="F108" t="s">
         <v>645</v>
       </c>
-      <c r="G108" t="s">
-        <v>646</v>
-      </c>
+      <c r="G108"/>
       <c r="H108" t="s">
         <v>647</v>
       </c>
@@ -6900,9 +6720,7 @@
       <c r="F109" t="s">
         <v>645</v>
       </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
+      <c r="G109"/>
       <c r="H109" t="s">
         <v>146</v>
       </c>
@@ -6929,9 +6747,7 @@
       <c r="F110" t="s">
         <v>645</v>
       </c>
-      <c r="G110" t="s">
-        <v>655</v>
-      </c>
+      <c r="G110"/>
       <c r="H110" t="s">
         <v>656</v>
       </c>
@@ -6958,9 +6774,7 @@
       <c r="F111" t="s">
         <v>645</v>
       </c>
-      <c r="G111" t="s">
-        <v>377</v>
-      </c>
+      <c r="G111"/>
       <c r="H111" t="s">
         <v>661</v>
       </c>
@@ -6987,9 +6801,7 @@
       <c r="F112" t="s">
         <v>666</v>
       </c>
-      <c r="G112" t="s">
-        <v>667</v>
-      </c>
+      <c r="G112"/>
       <c r="H112" t="s">
         <v>668</v>
       </c>
@@ -7016,9 +6828,7 @@
       <c r="F113" t="s">
         <v>666</v>
       </c>
-      <c r="G113" t="s">
-        <v>673</v>
-      </c>
+      <c r="G113"/>
       <c r="H113" t="s">
         <v>674</v>
       </c>
@@ -7132,9 +6942,7 @@
       <c r="F117" t="s">
         <v>703</v>
       </c>
-      <c r="G117" t="s">
-        <v>285</v>
-      </c>
+      <c r="G117"/>
       <c r="H117" t="s">
         <v>286</v>
       </c>
@@ -7161,9 +6969,7 @@
       <c r="F118" t="s">
         <v>703</v>
       </c>
-      <c r="G118" t="s">
-        <v>285</v>
-      </c>
+      <c r="G118"/>
       <c r="H118" t="s">
         <v>286</v>
       </c>
@@ -7190,9 +6996,7 @@
       <c r="F119" t="s">
         <v>710</v>
       </c>
-      <c r="G119" t="s">
-        <v>285</v>
-      </c>
+      <c r="G119"/>
       <c r="H119" t="s">
         <v>286</v>
       </c>
@@ -7219,9 +7023,7 @@
       <c r="F120" t="s">
         <v>710</v>
       </c>
-      <c r="G120" t="s">
-        <v>714</v>
-      </c>
+      <c r="G120"/>
       <c r="H120" t="s">
         <v>715</v>
       </c>
@@ -7248,9 +7050,7 @@
       <c r="F121" t="s">
         <v>710</v>
       </c>
-      <c r="G121" t="s">
-        <v>285</v>
-      </c>
+      <c r="G121"/>
       <c r="H121" t="s">
         <v>286</v>
       </c>
@@ -7277,9 +7077,7 @@
       <c r="F122" t="s">
         <v>710</v>
       </c>
-      <c r="G122" t="s">
-        <v>285</v>
-      </c>
+      <c r="G122"/>
       <c r="H122" t="s">
         <v>286</v>
       </c>
@@ -7335,9 +7133,7 @@
       <c r="F124" t="s">
         <v>731</v>
       </c>
-      <c r="G124" t="s">
-        <v>137</v>
-      </c>
+      <c r="G124"/>
       <c r="H124" t="s">
         <v>732</v>
       </c>
@@ -7364,9 +7160,7 @@
       <c r="F125" t="s">
         <v>731</v>
       </c>
-      <c r="G125" t="s">
-        <v>737</v>
-      </c>
+      <c r="G125"/>
       <c r="H125" t="s">
         <v>738</v>
       </c>
@@ -7393,9 +7187,7 @@
       <c r="F126" t="s">
         <v>743</v>
       </c>
-      <c r="G126" t="s">
-        <v>744</v>
-      </c>
+      <c r="G126"/>
       <c r="H126" t="s">
         <v>745</v>
       </c>
@@ -7451,9 +7243,7 @@
       <c r="F128" t="s">
         <v>757</v>
       </c>
-      <c r="G128" t="s">
-        <v>758</v>
-      </c>
+      <c r="G128"/>
       <c r="H128" t="s">
         <v>759</v>
       </c>
@@ -7509,9 +7299,7 @@
       <c r="F130" t="s">
         <v>768</v>
       </c>
-      <c r="G130" t="s">
-        <v>769</v>
-      </c>
+      <c r="G130"/>
       <c r="H130" t="s">
         <v>770</v>
       </c>
@@ -7538,9 +7326,7 @@
       <c r="F131" t="s">
         <v>768</v>
       </c>
-      <c r="G131" t="s">
-        <v>775</v>
-      </c>
+      <c r="G131"/>
       <c r="H131" t="s">
         <v>776</v>
       </c>
@@ -7567,9 +7353,7 @@
       <c r="F132" t="s">
         <v>768</v>
       </c>
-      <c r="G132" t="s">
-        <v>781</v>
-      </c>
+      <c r="G132"/>
       <c r="H132" t="s">
         <v>782</v>
       </c>
@@ -7596,9 +7380,7 @@
       <c r="F133" t="s">
         <v>768</v>
       </c>
-      <c r="G133" t="s">
-        <v>787</v>
-      </c>
+      <c r="G133"/>
       <c r="H133" t="s">
         <v>788</v>
       </c>
@@ -7625,9 +7407,7 @@
       <c r="F134" t="s">
         <v>768</v>
       </c>
-      <c r="G134" t="s">
-        <v>793</v>
-      </c>
+      <c r="G134"/>
       <c r="H134" t="s">
         <v>794</v>
       </c>
@@ -7654,9 +7434,7 @@
       <c r="F135" t="s">
         <v>768</v>
       </c>
-      <c r="G135" t="s">
-        <v>799</v>
-      </c>
+      <c r="G135"/>
       <c r="H135" t="s">
         <v>800</v>
       </c>
@@ -7683,9 +7461,7 @@
       <c r="F136" t="s">
         <v>768</v>
       </c>
-      <c r="G136" t="s">
-        <v>804</v>
-      </c>
+      <c r="G136"/>
       <c r="H136" t="s">
         <v>805</v>
       </c>
@@ -7712,9 +7488,7 @@
       <c r="F137" t="s">
         <v>768</v>
       </c>
-      <c r="G137" t="s">
-        <v>769</v>
-      </c>
+      <c r="G137"/>
       <c r="H137" t="s">
         <v>770</v>
       </c>
@@ -7741,9 +7515,7 @@
       <c r="F138" t="s">
         <v>768</v>
       </c>
-      <c r="G138" t="s">
-        <v>813</v>
-      </c>
+      <c r="G138"/>
       <c r="H138" t="s">
         <v>814</v>
       </c>
@@ -7770,9 +7542,7 @@
       <c r="F139" t="s">
         <v>768</v>
       </c>
-      <c r="G139" t="s">
-        <v>781</v>
-      </c>
+      <c r="G139"/>
       <c r="H139" t="s">
         <v>782</v>
       </c>
@@ -7799,9 +7569,7 @@
       <c r="F140" t="s">
         <v>768</v>
       </c>
-      <c r="G140" t="s">
-        <v>822</v>
-      </c>
+      <c r="G140"/>
       <c r="H140" t="s">
         <v>823</v>
       </c>
@@ -7828,9 +7596,7 @@
       <c r="F141" t="s">
         <v>768</v>
       </c>
-      <c r="G141" t="s">
-        <v>828</v>
-      </c>
+      <c r="G141"/>
       <c r="H141" t="s">
         <v>829</v>
       </c>
@@ -7857,9 +7623,7 @@
       <c r="F142" t="s">
         <v>768</v>
       </c>
-      <c r="G142" t="s">
-        <v>834</v>
-      </c>
+      <c r="G142"/>
       <c r="H142" t="s">
         <v>835</v>
       </c>
@@ -7886,9 +7650,7 @@
       <c r="F143" t="s">
         <v>768</v>
       </c>
-      <c r="G143" t="s">
-        <v>839</v>
-      </c>
+      <c r="G143"/>
       <c r="H143" t="s">
         <v>840</v>
       </c>
@@ -7915,9 +7677,7 @@
       <c r="F144" t="s">
         <v>768</v>
       </c>
-      <c r="G144" t="s">
-        <v>30</v>
-      </c>
+      <c r="G144"/>
       <c r="H144" t="s">
         <v>146</v>
       </c>
@@ -7944,9 +7704,7 @@
       <c r="F145" t="s">
         <v>848</v>
       </c>
-      <c r="G145" t="s">
-        <v>769</v>
-      </c>
+      <c r="G145"/>
       <c r="H145" t="s">
         <v>770</v>
       </c>
@@ -7973,9 +7731,7 @@
       <c r="F146" t="s">
         <v>848</v>
       </c>
-      <c r="G146" t="s">
-        <v>852</v>
-      </c>
+      <c r="G146"/>
       <c r="H146" t="s">
         <v>853</v>
       </c>
@@ -8002,9 +7758,7 @@
       <c r="F147" t="s">
         <v>848</v>
       </c>
-      <c r="G147" t="s">
-        <v>858</v>
-      </c>
+      <c r="G147"/>
       <c r="H147" t="s">
         <v>859</v>
       </c>
@@ -8031,9 +7785,7 @@
       <c r="F148" t="s">
         <v>848</v>
       </c>
-      <c r="G148" t="s">
-        <v>781</v>
-      </c>
+      <c r="G148"/>
       <c r="H148" t="s">
         <v>782</v>
       </c>
@@ -8060,9 +7812,7 @@
       <c r="F149" t="s">
         <v>848</v>
       </c>
-      <c r="G149" t="s">
-        <v>83</v>
-      </c>
+      <c r="G149"/>
       <c r="H149" t="s">
         <v>84</v>
       </c>
@@ -8089,9 +7839,7 @@
       <c r="F150" t="s">
         <v>848</v>
       </c>
-      <c r="G150" t="s">
-        <v>868</v>
-      </c>
+      <c r="G150"/>
       <c r="H150" t="s">
         <v>869</v>
       </c>
@@ -8118,9 +7866,7 @@
       <c r="F151" t="s">
         <v>848</v>
       </c>
-      <c r="G151" t="s">
-        <v>874</v>
-      </c>
+      <c r="G151"/>
       <c r="H151" t="s">
         <v>875</v>
       </c>
@@ -8147,9 +7893,7 @@
       <c r="F152" t="s">
         <v>848</v>
       </c>
-      <c r="G152" t="s">
-        <v>880</v>
-      </c>
+      <c r="G152"/>
       <c r="H152" t="s">
         <v>881</v>
       </c>
@@ -8176,9 +7920,7 @@
       <c r="F153" t="s">
         <v>848</v>
       </c>
-      <c r="G153" t="s">
-        <v>885</v>
-      </c>
+      <c r="G153"/>
       <c r="H153" t="s">
         <v>886</v>
       </c>
@@ -8205,9 +7947,7 @@
       <c r="F154" t="s">
         <v>848</v>
       </c>
-      <c r="G154" t="s">
-        <v>891</v>
-      </c>
+      <c r="G154"/>
       <c r="H154" t="s">
         <v>892</v>
       </c>
@@ -8234,9 +7974,7 @@
       <c r="F155" t="s">
         <v>848</v>
       </c>
-      <c r="G155" t="s">
-        <v>896</v>
-      </c>
+      <c r="G155"/>
       <c r="H155" t="s">
         <v>897</v>
       </c>
@@ -8263,9 +8001,7 @@
       <c r="F156" t="s">
         <v>848</v>
       </c>
-      <c r="G156" t="s">
-        <v>781</v>
-      </c>
+      <c r="G156"/>
       <c r="H156" t="s">
         <v>782</v>
       </c>
@@ -8292,9 +8028,7 @@
       <c r="F157" t="s">
         <v>848</v>
       </c>
-      <c r="G157" t="s">
-        <v>905</v>
-      </c>
+      <c r="G157"/>
       <c r="H157" t="s">
         <v>906</v>
       </c>
@@ -8321,9 +8055,7 @@
       <c r="F158" t="s">
         <v>848</v>
       </c>
-      <c r="G158" t="s">
-        <v>911</v>
-      </c>
+      <c r="G158"/>
       <c r="H158" t="s">
         <v>912</v>
       </c>
@@ -8350,9 +8082,7 @@
       <c r="F159" t="s">
         <v>848</v>
       </c>
-      <c r="G159" t="s">
-        <v>517</v>
-      </c>
+      <c r="G159"/>
       <c r="H159" t="s">
         <v>518</v>
       </c>
@@ -8379,9 +8109,7 @@
       <c r="F160" t="s">
         <v>848</v>
       </c>
-      <c r="G160" t="s">
-        <v>919</v>
-      </c>
+      <c r="G160"/>
       <c r="H160" t="s">
         <v>920</v>
       </c>
@@ -8408,9 +8136,7 @@
       <c r="F161" t="s">
         <v>848</v>
       </c>
-      <c r="G161" t="s">
-        <v>925</v>
-      </c>
+      <c r="G161"/>
       <c r="H161" t="s">
         <v>926</v>
       </c>
@@ -8437,9 +8163,7 @@
       <c r="F162" t="s">
         <v>848</v>
       </c>
-      <c r="G162" t="s">
-        <v>931</v>
-      </c>
+      <c r="G162"/>
       <c r="H162" t="s">
         <v>932</v>
       </c>
@@ -8466,9 +8190,7 @@
       <c r="F163" t="s">
         <v>848</v>
       </c>
-      <c r="G163" t="s">
-        <v>937</v>
-      </c>
+      <c r="G163"/>
       <c r="H163" t="s">
         <v>938</v>
       </c>
@@ -8495,9 +8217,7 @@
       <c r="F164" t="s">
         <v>848</v>
       </c>
-      <c r="G164" t="s">
-        <v>943</v>
-      </c>
+      <c r="G164"/>
       <c r="H164" t="s">
         <v>944</v>
       </c>
@@ -8524,9 +8244,7 @@
       <c r="F165" t="s">
         <v>848</v>
       </c>
-      <c r="G165" t="s">
-        <v>949</v>
-      </c>
+      <c r="G165"/>
       <c r="H165" t="s">
         <v>950</v>
       </c>
@@ -8553,9 +8271,7 @@
       <c r="F166" t="s">
         <v>848</v>
       </c>
-      <c r="G166" t="s">
-        <v>781</v>
-      </c>
+      <c r="G166"/>
       <c r="H166" t="s">
         <v>782</v>
       </c>
@@ -8582,9 +8298,7 @@
       <c r="F167" t="s">
         <v>848</v>
       </c>
-      <c r="G167" t="s">
-        <v>958</v>
-      </c>
+      <c r="G167"/>
       <c r="H167" t="s">
         <v>959</v>
       </c>
@@ -8611,9 +8325,7 @@
       <c r="F168" t="s">
         <v>848</v>
       </c>
-      <c r="G168" t="s">
-        <v>964</v>
-      </c>
+      <c r="G168"/>
       <c r="H168" t="s">
         <v>965</v>
       </c>
@@ -8640,9 +8352,7 @@
       <c r="F169" t="s">
         <v>848</v>
       </c>
-      <c r="G169" t="s">
-        <v>970</v>
-      </c>
+      <c r="G169"/>
       <c r="H169" t="s">
         <v>971</v>
       </c>
@@ -8669,9 +8379,7 @@
       <c r="F170" t="s">
         <v>848</v>
       </c>
-      <c r="G170" t="s">
-        <v>369</v>
-      </c>
+      <c r="G170"/>
       <c r="H170" t="s">
         <v>370</v>
       </c>
@@ -8727,9 +8435,7 @@
       <c r="F172" t="s">
         <v>985</v>
       </c>
-      <c r="G172" t="s">
-        <v>986</v>
-      </c>
+      <c r="G172"/>
       <c r="H172" t="s">
         <v>987</v>
       </c>
@@ -8756,9 +8462,7 @@
       <c r="F173" t="s">
         <v>985</v>
       </c>
-      <c r="G173" t="s">
-        <v>992</v>
-      </c>
+      <c r="G173"/>
       <c r="H173" t="s">
         <v>993</v>
       </c>
@@ -8843,9 +8547,7 @@
       <c r="F176" t="s">
         <v>1014</v>
       </c>
-      <c r="G176" t="s">
-        <v>1015</v>
-      </c>
+      <c r="G176"/>
       <c r="H176" t="s">
         <v>1016</v>
       </c>
@@ -8872,9 +8574,7 @@
       <c r="F177" t="s">
         <v>1014</v>
       </c>
-      <c r="G177" t="s">
-        <v>1021</v>
-      </c>
+      <c r="G177"/>
       <c r="H177" t="s">
         <v>1022</v>
       </c>
@@ -8901,9 +8601,7 @@
       <c r="F178" t="s">
         <v>1027</v>
       </c>
-      <c r="G178" t="s">
-        <v>134</v>
-      </c>
+      <c r="G178"/>
       <c r="H178" t="s">
         <v>135</v>
       </c>
@@ -8930,9 +8628,7 @@
       <c r="F179" t="s">
         <v>1027</v>
       </c>
-      <c r="G179" t="s">
-        <v>398</v>
-      </c>
+      <c r="G179"/>
       <c r="H179" t="s">
         <v>1031</v>
       </c>
@@ -8988,9 +8684,7 @@
       <c r="F181" t="s">
         <v>1040</v>
       </c>
-      <c r="G181" t="s">
-        <v>1041</v>
-      </c>
+      <c r="G181"/>
       <c r="H181" t="s">
         <v>1042</v>
       </c>
@@ -9104,9 +8798,7 @@
       <c r="F185" t="s">
         <v>1071</v>
       </c>
-      <c r="G185" t="s">
-        <v>1002</v>
-      </c>
+      <c r="G185"/>
       <c r="H185" t="s">
         <v>1072</v>
       </c>
@@ -9162,9 +8854,7 @@
       <c r="F187" t="s">
         <v>1082</v>
       </c>
-      <c r="G187" t="s">
-        <v>1083</v>
-      </c>
+      <c r="G187"/>
       <c r="H187" t="s">
         <v>1084</v>
       </c>
@@ -9220,9 +8910,7 @@
       <c r="F189" t="s">
         <v>1092</v>
       </c>
-      <c r="G189" t="s">
-        <v>1093</v>
-      </c>
+      <c r="G189"/>
       <c r="H189" t="s">
         <v>1094</v>
       </c>
@@ -9249,9 +8937,7 @@
       <c r="F190" t="s">
         <v>1092</v>
       </c>
-      <c r="G190" t="s">
-        <v>1099</v>
-      </c>
+      <c r="G190"/>
       <c r="H190" t="s">
         <v>1100</v>
       </c>
@@ -9278,9 +8964,7 @@
       <c r="F191" t="s">
         <v>1092</v>
       </c>
-      <c r="G191" t="s">
-        <v>1105</v>
-      </c>
+      <c r="G191"/>
       <c r="H191" t="s">
         <v>1106</v>
       </c>
@@ -9307,9 +8991,7 @@
       <c r="F192" t="s">
         <v>1092</v>
       </c>
-      <c r="G192" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G192"/>
       <c r="H192" t="s">
         <v>1112</v>
       </c>
@@ -9336,9 +9018,7 @@
       <c r="F193" t="s">
         <v>1092</v>
       </c>
-      <c r="G193" t="s">
-        <v>1117</v>
-      </c>
+      <c r="G193"/>
       <c r="H193" t="s">
         <v>1118</v>
       </c>
@@ -9423,9 +9103,7 @@
       <c r="F196" t="s">
         <v>1138</v>
       </c>
-      <c r="G196" t="s">
-        <v>1139</v>
-      </c>
+      <c r="G196"/>
       <c r="H196" t="s">
         <v>1140</v>
       </c>
@@ -9456,9 +9134,7 @@
       <c r="F197" t="s">
         <v>1138</v>
       </c>
-      <c r="G197" t="s">
-        <v>70</v>
-      </c>
+      <c r="G197"/>
       <c r="H197" t="s">
         <v>71</v>
       </c>
@@ -9485,9 +9161,7 @@
       <c r="F198" t="s">
         <v>1138</v>
       </c>
-      <c r="G198" t="s">
-        <v>1149</v>
-      </c>
+      <c r="G198"/>
       <c r="H198" t="s">
         <v>1150</v>
       </c>
@@ -9514,9 +9188,7 @@
       <c r="F199" t="s">
         <v>1138</v>
       </c>
-      <c r="G199" t="s">
-        <v>828</v>
-      </c>
+      <c r="G199"/>
       <c r="H199" t="s">
         <v>829</v>
       </c>
@@ -9543,9 +9215,7 @@
       <c r="F200" t="s">
         <v>1138</v>
       </c>
-      <c r="G200" t="s">
-        <v>1158</v>
-      </c>
+      <c r="G200"/>
       <c r="H200" t="s">
         <v>1159</v>
       </c>
@@ -9572,9 +9242,7 @@
       <c r="F201" t="s">
         <v>1164</v>
       </c>
-      <c r="G201" t="s">
-        <v>1165</v>
-      </c>
+      <c r="G201"/>
       <c r="H201" t="s">
         <v>1166</v>
       </c>
@@ -9601,9 +9269,7 @@
       <c r="F202" t="s">
         <v>1164</v>
       </c>
-      <c r="G202" t="s">
-        <v>911</v>
-      </c>
+      <c r="G202"/>
       <c r="H202" t="s">
         <v>912</v>
       </c>
@@ -9630,9 +9296,7 @@
       <c r="F203" t="s">
         <v>1164</v>
       </c>
-      <c r="G203" t="s">
-        <v>911</v>
-      </c>
+      <c r="G203"/>
       <c r="H203" t="s">
         <v>912</v>
       </c>
@@ -9659,9 +9323,7 @@
       <c r="F204" t="s">
         <v>1164</v>
       </c>
-      <c r="G204" t="s">
-        <v>1177</v>
-      </c>
+      <c r="G204"/>
       <c r="H204" t="s">
         <v>1178</v>
       </c>
@@ -9688,9 +9350,7 @@
       <c r="F205" t="s">
         <v>1164</v>
       </c>
-      <c r="G205" t="s">
-        <v>1183</v>
-      </c>
+      <c r="G205"/>
       <c r="H205" t="s">
         <v>1184</v>
       </c>
@@ -9717,9 +9377,7 @@
       <c r="F206" t="s">
         <v>1164</v>
       </c>
-      <c r="G206" t="s">
-        <v>64</v>
-      </c>
+      <c r="G206"/>
       <c r="H206" t="s">
         <v>65</v>
       </c>
@@ -9746,9 +9404,7 @@
       <c r="F207" t="s">
         <v>1164</v>
       </c>
-      <c r="G207" t="s">
-        <v>1191</v>
-      </c>
+      <c r="G207"/>
       <c r="H207" t="s">
         <v>1192</v>
       </c>
@@ -9804,9 +9460,7 @@
       <c r="F209" t="s">
         <v>1205</v>
       </c>
-      <c r="G209" t="s">
-        <v>1206</v>
-      </c>
+      <c r="G209"/>
       <c r="H209" t="s">
         <v>1207</v>
       </c>
@@ -9862,9 +9516,7 @@
       <c r="F211" t="s">
         <v>1218</v>
       </c>
-      <c r="G211" t="s">
-        <v>1219</v>
-      </c>
+      <c r="G211"/>
       <c r="H211" t="s">
         <v>1220</v>
       </c>
